--- a/public/Catalog Worksheet/InputOptions.xlsx
+++ b/public/Catalog Worksheet/InputOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcking2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjbischo\Dropbox (ASU)\Projects\ShinyDataEntry\public\Catalog Worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79597B08-86A3-41A1-9E75-D06A5FC9B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D8F7E0-E407-4B1C-B7C5-8842BAABCB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,12 +249,6 @@
     <t>Indigenous,Subsequent,Mend/Glue,Unknown/Other,None</t>
   </si>
   <si>
-    <t>Corrosion/oxidation/tarnish,Crystalline Products,Dry rot,Fading,Fungus/mold/mildew</t>
-  </si>
-  <si>
-    <t>Abrasion,Accretion/incrustation,Bleeding,Break,Brittle/embrittlement</t>
-  </si>
-  <si>
     <t>lookup</t>
   </si>
   <si>
@@ -367,6 +361,12 @@
   </si>
   <si>
     <t>as.Date(Sys.time())</t>
+  </si>
+  <si>
+    <t>Abrasion; Accretion/incrustation; Bleeding; Break; Brittle/embrittlement; Chip/loss; Cleavage; Crazing; Crack; Delamination/separation; Dent/dig/gouge; Drying; Dirt/dust; Flaking; Fraying; Fossilization; Grease/oil; Holes; Loosening; Mend/adhesive/restoration paint; Missing Parts; Peeling; Pen/pencil marks; Pitting; Scratch/scrape; Shrinking; Spalling; Stain/discoloration; Stiffness; Tear; Warping; Water damage; Weathering; Other; None</t>
+  </si>
+  <si>
+    <t>Corrosion/oxidation/tarnish; Crystalline Products; Dry rot; Fading; Fungus/mold/mildew; Insects; Powdering; Red rot; Salts; Vermin; Other; None</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +781,13 @@
         <v>58</v>
       </c>
       <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
         <v>103</v>
       </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -817,83 +817,65 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -901,385 +883,406 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" t="b">
         <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>104</v>
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
+      <c r="G39" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1291,15 +1294,15 @@
         <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1308,18 +1311,18 @@
         <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1328,18 +1331,18 @@
         <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1348,18 +1351,21 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1368,10 +1374,10 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -1379,10 +1385,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1391,10 +1397,10 @@
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -1402,10 +1408,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1414,21 +1420,18 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
-      </c>
-      <c r="J48" t="b">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1437,18 +1440,18 @@
         <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1457,10 +1460,7 @@
         <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -1479,36 +1479,36 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44" xr:uid="{07DCE926-9D2B-4541-8BE4-D6FD51883AFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43" xr:uid="{07DCE926-9D2B-4541-8BE4-D6FD51883AFA}">
       <formula1>"Stable,Unstable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A45" xr:uid="{463065B2-D773-4C36-AED2-A63A612DEE7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44" xr:uid="{463065B2-D773-4C36-AED2-A63A612DEE7F}">
       <formula1>"Excellent,Good,Fair,Poor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50" xr:uid="{B184CF0A-2CFB-43FE-97F4-58EBE20DBE2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A49:A50" xr:uid="{B184CF0A-2CFB-43FE-97F4-58EBE20DBE2D}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16" xr:uid="{EFC47E23-E093-4EED-AB0C-55C969779159}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20" xr:uid="{EFC47E23-E093-4EED-AB0C-55C969779159}">
       <formula1>"Each,Lot"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A33" xr:uid="{A388F3EE-C884-4B53-A3D7-41C590D92650}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35" xr:uid="{A388F3EE-C884-4B53-A3D7-41C590D92650}">
       <formula1>"Ancestral Puebloan,Casas Grandes,Hohokam/Ancestral Sonoran Desert Dweller,Mogollon,Pataya,Salado,Sinagua,Trincheras"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A49 A42:A43" xr:uid="{B07E9565-D9EF-46FA-B46F-3439D39D5102}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A41:A42" xr:uid="{B07E9565-D9EF-46FA-B46F-3439D39D5102}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{0ADEE010-939C-40D6-90BD-6FD5D975DBC5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50" xr:uid="{0ADEE010-939C-40D6-90BD-6FD5D975DBC5}">
       <formula1>"Accessioned,Deaccessioned,Education,Incoming Loan,Repatriated,Returned Loan"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/Catalog Worksheet/InputOptions.xlsx
+++ b/public/Catalog Worksheet/InputOptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjbischo\Dropbox (ASU)\Projects\ShinyDataEntry\public\Catalog Worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D8F7E0-E407-4B1C-B7C5-8842BAABCB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9B904E-F720-4F79-8F91-494A8CEE138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="112">
   <si>
     <t>numeric</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Corrosion/oxidation/tarnish; Crystalline Products; Dry rot; Fading; Fungus/mold/mildew; Insects; Powdering; Red rot; Salts; Vermin; Other; None</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FEE92-9FDA-4DCE-8B2F-08DAE0774CC2}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
         <v>110</v>
@@ -1394,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F47" t="s">
         <v>109</v>

--- a/public/Catalog Worksheet/InputOptions.xlsx
+++ b/public/Catalog Worksheet/InputOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjbischo\Dropbox (ASU)\Projects\ShinyDataEntry\public\Catalog Worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9B904E-F720-4F79-8F91-494A8CEE138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888FDCFF-0EA2-443C-99FF-1EE28E844B03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
   <si>
     <t>numeric</t>
   </si>
@@ -370,6 +361,12 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -721,26 +718,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FEE92-9FDA-4DCE-8B2F-08DAE0774CC2}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -748,7 +745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -756,12 +753,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -793,7 +790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -804,7 +801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -815,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -829,7 +826,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -840,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -851,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -862,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -873,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -884,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -901,7 +898,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -915,7 +912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -929,7 +926,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -940,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -951,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -968,7 +965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -982,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -996,7 +993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1035,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1080,7 +1077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1184,7 +1181,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1204,7 +1201,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>105</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1320,7 +1317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1340,7 +1337,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1363,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1409,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1474,10 +1471,10 @@
         <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1489,6 +1486,17 @@
       </c>
       <c r="H52" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/Catalog Worksheet/InputOptions.xlsx
+++ b/public/Catalog Worksheet/InputOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjbischo\Dropbox (ASU)\Projects\ShinyDataEntry\public\Catalog Worksheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjbischo\Dropbox (ASU)\PC (2)\Documents\GitHub\ShinyDataEntry\public\Catalog Worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888FDCFF-0EA2-443C-99FF-1EE28E844B03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55196018-7740-4543-9259-8DBC06CDB449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,12 +234,6 @@
     <t>Excellent,Good,Fair,Poor</t>
   </si>
   <si>
-    <t>Yes,No,N/A</t>
-  </si>
-  <si>
-    <t>Indigenous,Subsequent,Mend/Glue,Unknown/Other,None</t>
-  </si>
-  <si>
     <t>lookup</t>
   </si>
   <si>
@@ -354,12 +348,6 @@
     <t>as.Date(Sys.time())</t>
   </si>
   <si>
-    <t>Abrasion; Accretion/incrustation; Bleeding; Break; Brittle/embrittlement; Chip/loss; Cleavage; Crazing; Crack; Delamination/separation; Dent/dig/gouge; Drying; Dirt/dust; Flaking; Fraying; Fossilization; Grease/oil; Holes; Loosening; Mend/adhesive/restoration paint; Missing Parts; Peeling; Pen/pencil marks; Pitting; Scratch/scrape; Shrinking; Spalling; Stain/discoloration; Stiffness; Tear; Warping; Water damage; Weathering; Other; None</t>
-  </si>
-  <si>
-    <t>Corrosion/oxidation/tarnish; Crystalline Products; Dry rot; Fading; Fungus/mold/mildew; Insects; Powdering; Red rot; Salts; Vermin; Other; None</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
@@ -367,6 +355,18 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>None,Indigenous,Subsequent,Mend/Glue,Unknown/Other</t>
+  </si>
+  <si>
+    <t>None; Corrosion/oxidation/tarnish; Crystalline Products; Dry rot; Fading; Fungus/mold/mildew; Insects; Powdering; Red rot; Salts; Vermin; Other</t>
+  </si>
+  <si>
+    <t>None; Abrasion; Accretion/incrustation; Bleeding; Break; Brittle/embrittlement; Chip/loss; Cleavage; Crazing; Crack; Delamination/separation; Dent/dig/gouge; Drying; Dirt/dust; Flaking; Fraying; Fossilization; Grease/oil; Holes; Loosening; Mend/adhesive/restoration paint; Missing Parts; Peeling; Pen/pencil marks; Pitting; Scratch/scrape; Shrinking; Spalling; Stain/discoloration; Stiffness; Tear; Warping; Water damage; Weathering; Other</t>
+  </si>
+  <si>
+    <t>N/A,Yes,No</t>
   </si>
 </sst>
 </file>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FEE92-9FDA-4DCE-8B2F-08DAE0774CC2}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +730,7 @@
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -781,13 +782,13 @@
         <v>58</v>
       </c>
       <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
         <v>101</v>
       </c>
-      <c r="I6" t="s">
-        <v>103</v>
-      </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -795,10 +796,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -806,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -817,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -831,7 +832,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -842,7 +843,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -853,7 +854,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -864,7 +865,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -886,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -895,7 +896,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -903,13 +904,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -917,13 +918,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -953,7 +954,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -967,13 +968,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
         <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>104</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1004,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1018,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1032,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1046,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1054,13 +1055,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1068,13 +1069,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1088,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1133,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1141,7 +1142,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -1149,13 +1150,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1178,7 +1179,7 @@
         <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1198,7 +1199,7 @@
         <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1209,10 +1210,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1223,10 +1224,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1240,18 +1241,18 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1262,7 +1263,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1274,7 +1275,7 @@
         <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1282,7 +1283,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1294,7 +1295,7 @@
         <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1314,7 +1315,7 @@
         <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1322,7 +1323,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1334,7 +1335,7 @@
         <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1342,7 +1343,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1351,10 +1352,10 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -1365,19 +1366,19 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
         <v>111</v>
       </c>
-      <c r="F46" t="s">
-        <v>110</v>
-      </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -1388,19 +1389,19 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -1411,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1423,7 +1424,7 @@
         <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1431,7 +1432,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1440,10 +1441,10 @@
         <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1451,7 +1452,7 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1468,10 +1469,10 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,21 +1480,21 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>

--- a/public/Catalog Worksheet/InputOptions.xlsx
+++ b/public/Catalog Worksheet/InputOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjbischo\Dropbox (ASU)\PC (2)\Documents\GitHub\ShinyDataEntry\public\Catalog Worksheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisch\Dropbox (ASU)\PC (2)\Documents\GitHub\ShinyDataEntry\public\Catalog Worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55196018-7740-4543-9259-8DBC06CDB449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB465262-DAF3-46BB-9A04-4DD4204F8715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -720,25 +731,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FEE92-9FDA-4DCE-8B2F-08DAE0774CC2}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -746,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -754,12 +765,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -791,7 +802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -802,7 +813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -813,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -827,7 +838,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -838,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -849,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -860,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -871,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -882,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -899,7 +910,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -913,7 +924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -927,7 +938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -938,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -949,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -966,7 +977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -980,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1008,7 +1019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1022,7 +1033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1078,7 +1089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1109,7 +1120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1126,7 +1137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -1162,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1182,7 +1193,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1202,7 +1213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1216,7 +1227,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1278,7 +1289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1298,7 +1309,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1318,7 +1329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1361,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1427,7 +1438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1464,7 +1475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1475,7 +1486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1489,7 +1500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>108</v>
       </c>
